--- a/投資監控/investment_tracking.xlsx
+++ b/投資監控/investment_tracking.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -556,6 +556,30 @@
         <v>4198</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forex</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.041</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6408.199999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
